--- a/origem.xlsx
+++ b/origem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\Projeto APC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{685B4DEF-680C-45C6-BCCD-4C77BB6F3BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB528A6-98CB-4277-8612-B4E6F3DE0235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0DC14F21-35C8-42AF-AC82-015ECA66AB8B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="285">
   <si>
     <t>Internacionais</t>
   </si>
@@ -1235,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D25EB68-7EDC-488E-80BD-4D4F9B9399B2}">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B221"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222:C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,8 +3675,113 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C222" s="1" t="s">
-        <v>149</v>
+      <c r="A222" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B222" s="1">
+        <v>-31</v>
+      </c>
+      <c r="C222" s="1">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B223" s="1">
+        <v>-30</v>
+      </c>
+      <c r="C223" s="1">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B224" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C224" s="1">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B225" s="1">
+        <v>-19</v>
+      </c>
+      <c r="C225" s="1">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B226" s="1">
+        <v>-18</v>
+      </c>
+      <c r="C226" s="1">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B227" s="1">
+        <v>-21</v>
+      </c>
+      <c r="C227" s="1">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B228" s="1">
+        <v>-23</v>
+      </c>
+      <c r="C228" s="1">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B229" s="1">
+        <v>-28</v>
+      </c>
+      <c r="C229" s="1">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B230" s="1">
+        <v>-24</v>
+      </c>
+      <c r="C230" s="1">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B231" s="1">
+        <v>-19</v>
+      </c>
+      <c r="C231" s="1">
+        <v>-69</v>
       </c>
     </row>
   </sheetData>
